--- a/WI 24/SE 160A/MATLAB PROJECT 1/SE160A_1_Spar_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1/SE160A_1_Spar_Analysis_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D076C2-19EF-434D-AA5A-21B1C9A384A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7130519-8824-41B2-9BAA-E706E468162D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="2" r:id="rId1"/>
@@ -3433,7 +3433,7 @@
         <v>112</v>
       </c>
       <c r="G46" s="89">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H46" s="86">
         <v>0</v>
@@ -3455,7 +3455,7 @@
         <v>106</v>
       </c>
       <c r="G47" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H47" s="93">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>107</v>
       </c>
       <c r="G48" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H48" s="93">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>108</v>
       </c>
       <c r="G49" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H49" s="93">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>117</v>
       </c>
       <c r="G50" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H50" s="93">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>119</v>
       </c>
       <c r="G51" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H51" s="93">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>121</v>
       </c>
       <c r="G52" s="91">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H52" s="94">
         <v>0</v>

--- a/WI 24/SE 160A/MATLAB PROJECT 1/SE160A_1_Spar_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1/SE160A_1_Spar_Analysis_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7130519-8824-41B2-9BAA-E706E468162D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408D702E-632A-415D-AEA8-082C54489C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3433,7 +3433,7 @@
         <v>112</v>
       </c>
       <c r="G46" s="89">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H46" s="86">
         <v>0</v>
@@ -3455,7 +3455,7 @@
         <v>106</v>
       </c>
       <c r="G47" s="90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H47" s="93">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>107</v>
       </c>
       <c r="G48" s="90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H48" s="93">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>108</v>
       </c>
       <c r="G49" s="90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H49" s="93">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>117</v>
       </c>
       <c r="G50" s="90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H50" s="93">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>119</v>
       </c>
       <c r="G51" s="90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H51" s="93">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>121</v>
       </c>
       <c r="G52" s="91">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H52" s="94">
         <v>0</v>

--- a/WI 24/SE 160A/MATLAB PROJECT 1/SE160A_1_Spar_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1/SE160A_1_Spar_Analysis_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408D702E-632A-415D-AEA8-082C54489C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67621326-EAD1-4FBF-A0FE-3308001A55DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/WI 24/SE 160A/MATLAB PROJECT 1/SE160A_1_Spar_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1/SE160A_1_Spar_Analysis_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67621326-EAD1-4FBF-A0FE-3308001A55DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620E248A-D253-4B3A-B489-A85C36240A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="204">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1394,6 +1394,12 @@
   </si>
   <si>
     <t>Test Case</t>
+  </si>
+  <si>
+    <t>Levi Stein</t>
+  </si>
+  <si>
+    <t>A16791467</t>
   </si>
 </sst>
 </file>
@@ -2534,6 +2540,861 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235676</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99514</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116E105F-CF6B-548C-B126-AD0AF01B19BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788126" y="15598775"/>
+          <a:ext cx="10274663" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235676</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99514</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E37DAC4-3B9E-D5F2-9E22-0D3BDFF3468F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788126" y="19999325"/>
+          <a:ext cx="10274663" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235676</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99514</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AED9C20-9BB6-B366-301B-2F6A4BBA1A45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788126" y="24399875"/>
+          <a:ext cx="10274663" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235676</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99514</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2608A307-FAF8-252B-335D-C2867F27A64E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788126" y="30962600"/>
+          <a:ext cx="10274663" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235676</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99514</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD55311E-AC38-C19A-BA8C-8D64DB24FD2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788126" y="35363150"/>
+          <a:ext cx="10274663" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235676</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99514</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA27790-5E08-37D1-84EB-3FD1628F5AC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788126" y="39763700"/>
+          <a:ext cx="10274663" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235676</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99514</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C3E83F-3436-275E-CF94-E9BDC57CBAC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788126" y="44164250"/>
+          <a:ext cx="10274663" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235676</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99514</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6BF114-5872-5C18-7EA7-623EE2BDF5E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788126" y="48564800"/>
+          <a:ext cx="10274663" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235676</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99514</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA8F3E5-754F-D953-0703-F42E1E76FF0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788126" y="52965350"/>
+          <a:ext cx="10274663" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235676</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99514</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295F6CEE-21FB-1F0D-C513-A816EE6989EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788126" y="58985150"/>
+          <a:ext cx="10274663" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235676</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99514</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D6FBEFE-EC76-E802-84F8-0FF543BCA679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788126" y="63385700"/>
+          <a:ext cx="10274663" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235676</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99514</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7A79A4-59E3-9688-6095-917919DF06C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788126" y="70148450"/>
+          <a:ext cx="10274663" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235676</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99514</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F9127EE-2384-66BD-5D0F-A5CC18E78086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788126" y="74549000"/>
+          <a:ext cx="10274663" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235676</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99514</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E60D9E8-3FE0-D8BE-16BB-973060403580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788126" y="78949550"/>
+          <a:ext cx="10274663" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235676</xdr:colOff>
+      <xdr:row>429</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99514</xdr:colOff>
+      <xdr:row>450</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73097A82-4096-055C-8950-DDA4886A5CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788126" y="83350100"/>
+          <a:ext cx="10274663" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235676</xdr:colOff>
+      <xdr:row>452</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99514</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B6C749-B0C4-23A9-9759-42825BC778F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788126" y="87750650"/>
+          <a:ext cx="10274663" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235676</xdr:colOff>
+      <xdr:row>475</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99514</xdr:colOff>
+      <xdr:row>496</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75387B8B-A380-4AC9-4650-F7CE98E30887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788126" y="92151200"/>
+          <a:ext cx="10274663" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -2836,8 +3697,8 @@
   </sheetPr>
   <dimension ref="A1:P502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56:G64"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="G357" sqref="G357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2926,7 +3787,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="112" t="s">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="P9" s="52"/>
     </row>
@@ -2936,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="113" t="s">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="P10" s="52"/>
     </row>
@@ -3433,10 +4294,10 @@
         <v>112</v>
       </c>
       <c r="G46" s="89">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H46" s="86">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I46" s="9">
         <v>1</v>
@@ -3455,10 +4316,10 @@
         <v>106</v>
       </c>
       <c r="G47" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H47" s="93">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I47" s="48" t="s">
         <v>45</v>
@@ -3477,10 +4338,10 @@
         <v>107</v>
       </c>
       <c r="G48" s="90">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H48" s="93">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I48" s="48" t="s">
         <v>45</v>
@@ -3499,10 +4360,10 @@
         <v>108</v>
       </c>
       <c r="G49" s="90">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H49" s="93">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I49" s="48" t="s">
         <v>45</v>
@@ -3521,10 +4382,10 @@
         <v>117</v>
       </c>
       <c r="G50" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H50" s="93">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I50" s="48" t="s">
         <v>45</v>
@@ -3543,10 +4404,10 @@
         <v>119</v>
       </c>
       <c r="G51" s="90">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H51" s="93">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I51" s="48" t="s">
         <v>45</v>
@@ -3565,10 +4426,10 @@
         <v>121</v>
       </c>
       <c r="G52" s="91">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H52" s="94">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I52" s="49" t="s">
         <v>45</v>
@@ -3832,8 +4693,8 @@
       <c r="F71" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G71" s="64" t="s">
-        <v>0</v>
+      <c r="G71" s="64">
+        <v>31415926.535897821</v>
       </c>
       <c r="H71" s="47" t="s">
         <v>45</v>
@@ -3848,8 +4709,8 @@
       <c r="F72" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G72" s="62" t="s">
-        <v>0</v>
+      <c r="G72" s="62">
+        <v>392738351.60689217</v>
       </c>
       <c r="H72" s="48" t="s">
         <v>46</v>
@@ -3864,8 +4725,8 @@
       <c r="F73" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G73" s="62" t="s">
-        <v>0</v>
+      <c r="G73" s="62">
+        <v>392738351.60689217</v>
       </c>
       <c r="H73" s="48" t="s">
         <v>46</v>
@@ -3880,7 +4741,7 @@
       <c r="F74" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G74" s="62" t="s">
+      <c r="G74" s="62">
         <v>0</v>
       </c>
       <c r="H74" s="48" t="s">
@@ -3896,8 +4757,8 @@
       <c r="F75" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G75" s="63" t="s">
-        <v>0</v>
+      <c r="G75" s="63">
+        <v>294553763.70516914</v>
       </c>
       <c r="H75" s="49" t="s">
         <v>46</v>
@@ -4958,8 +5819,8 @@
       <c r="F150" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="G150" s="95" t="s">
-        <v>0</v>
+      <c r="G150" s="95">
+        <v>20</v>
       </c>
       <c r="H150" s="21" t="s">
         <v>45</v>
@@ -4974,8 +5835,8 @@
       <c r="F151" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="G151" s="96" t="s">
-        <v>0</v>
+      <c r="G151" s="96">
+        <v>194.75714285714287</v>
       </c>
       <c r="H151" s="32" t="s">
         <v>45</v>
@@ -4990,8 +5851,8 @@
       <c r="F152" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G152" s="96" t="s">
-        <v>0</v>
+      <c r="G152" s="96">
+        <v>2510.7528124969222</v>
       </c>
       <c r="H152" s="32" t="s">
         <v>45</v>
@@ -5006,8 +5867,8 @@
       <c r="F153" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="G153" s="96" t="s">
-        <v>0</v>
+      <c r="G153" s="96">
+        <v>6020</v>
       </c>
       <c r="H153" s="32" t="s">
         <v>77</v>
@@ -5022,8 +5883,8 @@
       <c r="F154" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G154" s="96" t="s">
-        <v>0</v>
+      <c r="G154" s="96">
+        <v>-114224.30729151274</v>
       </c>
       <c r="H154" s="32" t="s">
         <v>77</v>
@@ -5038,8 +5899,8 @@
       <c r="F155" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="G155" s="97" t="s">
-        <v>0</v>
+      <c r="G155" s="97">
+        <v>10913.75</v>
       </c>
       <c r="H155" s="22" t="s">
         <v>77</v>
@@ -6969,17 +7830,17 @@
       <c r="F298" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="G298" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="H298" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="I298" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="J298" s="100" t="s">
-        <v>0</v>
+      <c r="G298" s="98">
+        <v>-14.687456660701038</v>
+      </c>
+      <c r="H298" s="99">
+        <v>1.4033372924874497</v>
+      </c>
+      <c r="I298" s="100">
+        <v>14.687456660701038</v>
+      </c>
+      <c r="J298" s="100">
+        <v>-1.4033372924874497</v>
       </c>
       <c r="K298" s="66" t="s">
         <v>49</v>
@@ -6987,8 +7848,8 @@
       <c r="M298" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="N298" s="104" t="s">
-        <v>0</v>
+      <c r="N298" s="104">
+        <v>28.666666666666668</v>
       </c>
       <c r="P298" s="52"/>
     </row>
@@ -7000,16 +7861,16 @@
       <c r="F299" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="G299" s="106" t="s">
+      <c r="G299" s="106">
+        <v>-0.26305260215725279</v>
+      </c>
+      <c r="H299" s="107">
         <v>0</v>
       </c>
-      <c r="H299" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="I299" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="J299" s="108" t="s">
+      <c r="I299" s="108">
+        <v>0.51102509806260243</v>
+      </c>
+      <c r="J299" s="108">
         <v>0</v>
       </c>
       <c r="K299" s="66" t="s">
@@ -7018,8 +7879,8 @@
       <c r="M299" s="120" t="s">
         <v>167</v>
       </c>
-      <c r="N299" s="121" t="s">
-        <v>0</v>
+      <c r="N299" s="121">
+        <v>-33.636363636363633</v>
       </c>
       <c r="P299" s="52"/>
     </row>
@@ -7031,17 +7892,17 @@
       <c r="F300" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="G300" s="106" t="s">
+      <c r="G300" s="106">
         <v>0</v>
       </c>
-      <c r="H300" s="107" t="s">
+      <c r="H300" s="107">
+        <v>1.2113560338531277</v>
+      </c>
+      <c r="I300" s="108">
         <v>0</v>
       </c>
-      <c r="I300" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="J300" s="108" t="s">
-        <v>0</v>
+      <c r="J300" s="108">
+        <v>1.9854337340729828</v>
       </c>
       <c r="K300" s="66" t="s">
         <v>49</v>
@@ -7049,8 +7910,8 @@
       <c r="M300" s="119" t="s">
         <v>168</v>
       </c>
-      <c r="N300" s="105" t="s">
-        <v>0</v>
+      <c r="N300" s="105">
+        <v>18.666666666666668</v>
       </c>
       <c r="P300" s="52"/>
     </row>
@@ -7062,17 +7923,17 @@
       <c r="F301" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G301" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="H301" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="I301" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="J301" s="103" t="s">
-        <v>0</v>
+      <c r="G301" s="101">
+        <v>0.95084038173487762</v>
+      </c>
+      <c r="H301" s="102">
+        <v>10.356804570537115</v>
+      </c>
+      <c r="I301" s="103">
+        <v>0.94824427491733809</v>
+      </c>
+      <c r="J301" s="103">
+        <v>6.7181505354390136</v>
       </c>
       <c r="K301" s="43">
         <v>1</v>
@@ -7761,8 +8622,8 @@
       <c r="F352" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="G352" s="109" t="s">
-        <v>0</v>
+      <c r="G352" s="109">
+        <v>3.1830988618379183E-5</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>22</v>
@@ -7777,8 +8638,8 @@
       <c r="F353" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G353" s="110" t="s">
-        <v>0</v>
+      <c r="G353" s="110">
+        <v>6.8075786621886486E-2</v>
       </c>
       <c r="H353" s="32" t="s">
         <v>22</v>
@@ -7793,8 +8654,8 @@
       <c r="F354" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G354" s="111" t="s">
-        <v>0</v>
+      <c r="G354" s="111">
+        <v>0.6848259002780539</v>
       </c>
       <c r="H354" s="22" t="s">
         <v>22</v>
@@ -7809,8 +8670,8 @@
       <c r="F355" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="G355" s="124" t="s">
-        <v>0</v>
+      <c r="G355" s="124">
+        <v>6.1791637163418615E-2</v>
       </c>
       <c r="H355" s="125" t="s">
         <v>42</v>
@@ -7825,8 +8686,8 @@
       <c r="F356" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="G356" s="110" t="s">
-        <v>0</v>
+      <c r="G356" s="110">
+        <v>9.918958868205402E-4</v>
       </c>
       <c r="H356" s="32" t="s">
         <v>187</v>
@@ -7841,8 +8702,8 @@
       <c r="F357" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G357" s="111" t="s">
-        <v>0</v>
+      <c r="G357" s="111">
+        <v>9.0825562743329525E-3</v>
       </c>
       <c r="H357" s="22" t="s">
         <v>187</v>
@@ -9773,5 +10634,6 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WI 24/SE 160A/MATLAB PROJECT 1/SE160A_1_Spar_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1/SE160A_1_Spar_Analysis_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620E248A-D253-4B3A-B489-A85C36240A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E1EAB2-5644-41B5-A283-E43186582F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2560,7 +2560,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116E105F-CF6B-548C-B126-AD0AF01B19BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B6AF3E-D8D2-AB02-20C6-58973D0DE084}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E37DAC4-3B9E-D5F2-9E22-0D3BDFF3468F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92719CD5-F6AD-3277-8E4D-9C2E36769AD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2660,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AED9C20-9BB6-B366-301B-2F6A4BBA1A45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444608AE-A0D4-1B10-53F6-4AAAAEF58EB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2710,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2608A307-FAF8-252B-335D-C2867F27A64E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{757131C5-2289-CA3E-A0BA-5811E523AF2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2760,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD55311E-AC38-C19A-BA8C-8D64DB24FD2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00A5E2C-29CD-76C5-31AE-374F0D3917B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2810,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA27790-5E08-37D1-84EB-3FD1628F5AC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC4816B2-0DB5-837A-6CAD-9DA60CCC698C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2860,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C3E83F-3436-275E-CF94-E9BDC57CBAC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD61A428-DB2D-2BC0-753C-C7C31251FEC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2910,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6BF114-5872-5C18-7EA7-623EE2BDF5E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E195F453-107C-EF89-83A2-6D2CAC607995}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +2960,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA8F3E5-754F-D953-0703-F42E1E76FF0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12213D4A-4FA6-7A17-4D86-E4867DA44751}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3010,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295F6CEE-21FB-1F0D-C513-A816EE6989EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D9478F-8074-169D-E9C7-288650064DB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3060,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D6FBEFE-EC76-E802-84F8-0FF543BCA679}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E631921-A793-F82E-F281-23D9A8C58DAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3110,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7A79A4-59E3-9688-6095-917919DF06C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D64BC76-5920-E6C7-4523-8AEB2971E16E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3160,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F9127EE-2384-66BD-5D0F-A5CC18E78086}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FA1DF8-282A-4024-C544-57F8341C4658}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3210,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E60D9E8-3FE0-D8BE-16BB-973060403580}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E1ABFC-646A-12BB-E4F5-5426A7D95065}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3260,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73097A82-4096-055C-8950-DDA4886A5CF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E2C597B-5BBE-4E77-7F39-7303C0BC15D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3310,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B6C749-B0C4-23A9-9759-42825BC778F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DF635A-9F26-1EC1-3DC5-FB1213963347}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3360,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75387B8B-A380-4AC9-4650-F7CE98E30887}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC4878D-3C87-354D-83F3-96082B5AFA21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8639,7 +8639,7 @@
         <v>43</v>
       </c>
       <c r="G353" s="110">
-        <v>6.8075786621886486E-2</v>
+        <v>7.3136407750095972E-2</v>
       </c>
       <c r="H353" s="32" t="s">
         <v>22</v>
@@ -8655,7 +8655,7 @@
         <v>41</v>
       </c>
       <c r="G354" s="111">
-        <v>0.6848259002780539</v>
+        <v>0.69179618975653101</v>
       </c>
       <c r="H354" s="22" t="s">
         <v>22</v>

--- a/WI 24/SE 160A/MATLAB PROJECT 1/SE160A_1_Spar_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1/SE160A_1_Spar_Analysis_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E1EAB2-5644-41B5-A283-E43186582F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2702C50-74D0-48F2-936B-AE04087C6889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2560,7 +2560,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B6AF3E-D8D2-AB02-20C6-58973D0DE084}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91619B8-D794-56AD-1381-2955F0260C9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92719CD5-F6AD-3277-8E4D-9C2E36769AD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C015B5B9-EC77-B793-24A2-690CEDE9797B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2660,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444608AE-A0D4-1B10-53F6-4AAAAEF58EB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48997AE4-AEE1-6315-76AE-ADC3E2D85970}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2710,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{757131C5-2289-CA3E-A0BA-5811E523AF2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE933925-6217-3913-3F55-F701D25ECB10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2760,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00A5E2C-29CD-76C5-31AE-374F0D3917B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C154733B-206D-2B44-8661-B4869B5FD791}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2810,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC4816B2-0DB5-837A-6CAD-9DA60CCC698C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F229579-1033-EF7B-DE8A-9B9F71D1033C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2860,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD61A428-DB2D-2BC0-753C-C7C31251FEC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B496A6-F5F1-6BDB-DDAE-03F1090FCE17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2910,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E195F453-107C-EF89-83A2-6D2CAC607995}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09AE6E69-0014-7CA3-331F-0C5A2C27736E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +2960,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12213D4A-4FA6-7A17-4D86-E4867DA44751}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB535D41-DA44-D478-6065-93CE618FE17A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3010,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D9478F-8074-169D-E9C7-288650064DB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB44DDF5-F51F-AA9C-961C-148E4CDA547C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3060,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E631921-A793-F82E-F281-23D9A8C58DAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCEAE9F4-3301-F58A-DCEA-CA5D98EAFE17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3110,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D64BC76-5920-E6C7-4523-8AEB2971E16E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A904A7-DAF2-B4D1-8094-19DC72C4F5BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3160,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FA1DF8-282A-4024-C544-57F8341C4658}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1486CFC6-0B10-0F2A-1D32-E22B29FA05C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3210,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E1ABFC-646A-12BB-E4F5-5426A7D95065}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99840324-4830-DFF7-1371-F22CA9C8F1A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3260,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E2C597B-5BBE-4E77-7F39-7303C0BC15D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD9F881-EF22-53CF-A055-FB4B256E1CAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3310,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DF635A-9F26-1EC1-3DC5-FB1213963347}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6985C633-324F-5A7A-BB60-0FFDD7719806}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3360,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC4878D-3C87-354D-83F3-96082B5AFA21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E43CA596-DE6F-3734-00F1-14A606E6123C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4294,10 +4294,10 @@
         <v>112</v>
       </c>
       <c r="G46" s="89">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H46" s="86">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I46" s="9">
         <v>1</v>
@@ -4316,10 +4316,10 @@
         <v>106</v>
       </c>
       <c r="G47" s="90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H47" s="93">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I47" s="48" t="s">
         <v>45</v>
@@ -4338,10 +4338,10 @@
         <v>107</v>
       </c>
       <c r="G48" s="90">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H48" s="93">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I48" s="48" t="s">
         <v>45</v>
@@ -4360,10 +4360,10 @@
         <v>108</v>
       </c>
       <c r="G49" s="90">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H49" s="93">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I49" s="48" t="s">
         <v>45</v>
@@ -4382,10 +4382,10 @@
         <v>117</v>
       </c>
       <c r="G50" s="90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H50" s="93">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I50" s="48" t="s">
         <v>45</v>
@@ -4404,10 +4404,10 @@
         <v>119</v>
       </c>
       <c r="G51" s="90">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H51" s="93">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I51" s="48" t="s">
         <v>45</v>
@@ -4426,10 +4426,10 @@
         <v>121</v>
       </c>
       <c r="G52" s="91">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H52" s="94">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I52" s="49" t="s">
         <v>45</v>
@@ -5820,7 +5820,7 @@
         <v>73</v>
       </c>
       <c r="G150" s="95">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H150" s="21" t="s">
         <v>45</v>
@@ -5836,7 +5836,7 @@
         <v>71</v>
       </c>
       <c r="G151" s="96">
-        <v>194.75714285714287</v>
+        <v>154.75714285714287</v>
       </c>
       <c r="H151" s="32" t="s">
         <v>45</v>
@@ -5852,7 +5852,7 @@
         <v>72</v>
       </c>
       <c r="G152" s="96">
-        <v>2510.7528124969222</v>
+        <v>2450.7528124969222</v>
       </c>
       <c r="H152" s="32" t="s">
         <v>45</v>
@@ -5868,7 +5868,7 @@
         <v>74</v>
       </c>
       <c r="G153" s="96">
-        <v>6020</v>
+        <v>6000</v>
       </c>
       <c r="H153" s="32" t="s">
         <v>77</v>
@@ -5884,7 +5884,7 @@
         <v>75</v>
       </c>
       <c r="G154" s="96">
-        <v>-114224.30729151274</v>
+        <v>-111264.30729151274</v>
       </c>
       <c r="H154" s="32" t="s">
         <v>77</v>
@@ -5900,7 +5900,7 @@
         <v>76</v>
       </c>
       <c r="G155" s="97">
-        <v>10913.75</v>
+        <v>8853.75</v>
       </c>
       <c r="H155" s="22" t="s">
         <v>77</v>
@@ -7831,16 +7831,16 @@
         <v>78</v>
       </c>
       <c r="G298" s="98">
-        <v>-14.687456660701038</v>
+        <v>-14.306847027370342</v>
       </c>
       <c r="H298" s="99">
-        <v>1.4033372924874497</v>
+        <v>1.1384535611829807</v>
       </c>
       <c r="I298" s="100">
-        <v>14.687456660701038</v>
+        <v>14.306847027370342</v>
       </c>
       <c r="J298" s="100">
-        <v>-1.4033372924874497</v>
+        <v>-1.1384535611829807</v>
       </c>
       <c r="K298" s="66" t="s">
         <v>49</v>
@@ -7862,13 +7862,13 @@
         <v>79</v>
       </c>
       <c r="G299" s="106">
-        <v>-0.26305260215725279</v>
+        <v>-0.28723154969610915</v>
       </c>
       <c r="H299" s="107">
         <v>0</v>
       </c>
       <c r="I299" s="108">
-        <v>0.51102509806260243</v>
+        <v>0.48427446381205219</v>
       </c>
       <c r="J299" s="108">
         <v>0</v>
@@ -7896,13 +7896,13 @@
         <v>0</v>
       </c>
       <c r="H300" s="107">
-        <v>1.2113560338531277</v>
+        <v>1.1744446908669197</v>
       </c>
       <c r="I300" s="108">
         <v>0</v>
       </c>
       <c r="J300" s="108">
-        <v>1.9854337340729828</v>
+        <v>1.945950704375081</v>
       </c>
       <c r="K300" s="66" t="s">
         <v>49</v>
@@ -7924,16 +7924,16 @@
         <v>14</v>
       </c>
       <c r="G301" s="101">
-        <v>0.95084038173487762</v>
+        <v>1.002492265856382</v>
       </c>
       <c r="H301" s="102">
-        <v>10.356804570537115</v>
+        <v>11.297473084438773</v>
       </c>
       <c r="I301" s="103">
-        <v>0.94824427491733809</v>
+        <v>1.0002678016416993</v>
       </c>
       <c r="J301" s="103">
-        <v>6.7181505354390136</v>
+        <v>7.0579523003177087</v>
       </c>
       <c r="K301" s="43">
         <v>1</v>
@@ -8623,7 +8623,7 @@
         <v>183</v>
       </c>
       <c r="G352" s="109">
-        <v>3.1830988618379183E-5</v>
+        <v>0</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>22</v>
@@ -8639,7 +8639,7 @@
         <v>43</v>
       </c>
       <c r="G353" s="110">
-        <v>7.3136407750095972E-2</v>
+        <v>6.0410590049284098E-2</v>
       </c>
       <c r="H353" s="32" t="s">
         <v>22</v>
@@ -8655,7 +8655,7 @@
         <v>41</v>
       </c>
       <c r="G354" s="111">
-        <v>0.69179618975653101</v>
+        <v>0.67384530726401437</v>
       </c>
       <c r="H354" s="22" t="s">
         <v>22</v>
@@ -8671,7 +8671,7 @@
         <v>185</v>
       </c>
       <c r="G355" s="124">
-        <v>6.1791637163418615E-2</v>
+        <v>6.1597119942547407E-2</v>
       </c>
       <c r="H355" s="125" t="s">
         <v>42</v>
@@ -8687,7 +8687,7 @@
         <v>186</v>
       </c>
       <c r="G356" s="110">
-        <v>9.918958868205402E-4</v>
+        <v>8.2511818423049231E-4</v>
       </c>
       <c r="H356" s="32" t="s">
         <v>187</v>
@@ -8703,7 +8703,7 @@
         <v>189</v>
       </c>
       <c r="G357" s="111">
-        <v>9.0825562743329525E-3</v>
+        <v>8.8489401794835318E-3</v>
       </c>
       <c r="H357" s="22" t="s">
         <v>187</v>

--- a/WI 24/SE 160A/MATLAB PROJECT 1/SE160A_1_Spar_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1/SE160A_1_Spar_Analysis_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2702C50-74D0-48F2-936B-AE04087C6889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3AE55C-E3D2-4F9D-834C-4FD86F33DAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2560,7 +2560,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91619B8-D794-56AD-1381-2955F0260C9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A563C1D0-B447-4C64-B254-53D4D16317E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C015B5B9-EC77-B793-24A2-690CEDE9797B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5196D055-356F-2B34-8808-748E6FD3E7C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2660,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48997AE4-AEE1-6315-76AE-ADC3E2D85970}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2160C66-7DF5-7CD7-C459-6BD90A1C0251}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2710,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE933925-6217-3913-3F55-F701D25ECB10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB8B463-8D5B-8981-1157-DEF001B6C720}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2760,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C154733B-206D-2B44-8661-B4869B5FD791}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC8D43C-2C48-8B84-ABB6-392B3A4E08CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2810,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F229579-1033-EF7B-DE8A-9B9F71D1033C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13A5047-2B41-4F45-32BD-0E5002F8D7E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2860,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B496A6-F5F1-6BDB-DDAE-03F1090FCE17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E22D64CC-6D96-E2AB-2656-F63CCBC56B1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2910,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09AE6E69-0014-7CA3-331F-0C5A2C27736E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B0E86F-6581-E89B-4417-6EB50209F0F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +2960,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB535D41-DA44-D478-6065-93CE618FE17A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{309895CB-1044-2189-F030-89AFEA9D2768}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3010,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB44DDF5-F51F-AA9C-961C-148E4CDA547C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C52E0C0-E2ED-169B-17B7-6715040A0BDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3060,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCEAE9F4-3301-F58A-DCEA-CA5D98EAFE17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4323163D-4BDA-3289-E754-171DECC7B6EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3110,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A904A7-DAF2-B4D1-8094-19DC72C4F5BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A24D98D-436E-457D-F87C-6C45C8E6C6FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3160,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1486CFC6-0B10-0F2A-1D32-E22B29FA05C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCACCBD9-F8A9-656B-D13D-38D7FB7A2735}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3210,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99840324-4830-DFF7-1371-F22CA9C8F1A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5FBD82-9521-DEAA-C2BF-98BFD95D95FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3260,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD9F881-EF22-53CF-A055-FB4B256E1CAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A33BD2-3F56-AA37-4BB4-1541D2319335}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3310,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6985C633-324F-5A7A-BB60-0FFDD7719806}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF17DBF-1331-CBB0-0317-F5AD72501BB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3360,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E43CA596-DE6F-3734-00F1-14A606E6123C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54224EA1-81B0-87BF-F191-30FCA7FF8C0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4294,10 +4294,10 @@
         <v>112</v>
       </c>
       <c r="G46" s="89">
-        <v>0</v>
+        <v>0.2555</v>
       </c>
       <c r="H46" s="86">
-        <v>0</v>
+        <v>0.75549999999999995</v>
       </c>
       <c r="I46" s="9">
         <v>1</v>
@@ -4316,10 +4316,10 @@
         <v>106</v>
       </c>
       <c r="G47" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H47" s="93">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I47" s="48" t="s">
         <v>45</v>
@@ -4338,10 +4338,10 @@
         <v>107</v>
       </c>
       <c r="G48" s="90">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H48" s="93">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I48" s="48" t="s">
         <v>45</v>
@@ -4360,10 +4360,10 @@
         <v>108</v>
       </c>
       <c r="G49" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H49" s="93">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I49" s="48" t="s">
         <v>45</v>
@@ -4382,10 +4382,10 @@
         <v>117</v>
       </c>
       <c r="G50" s="90">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H50" s="93">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I50" s="48" t="s">
         <v>45</v>
@@ -4404,10 +4404,10 @@
         <v>119</v>
       </c>
       <c r="G51" s="90">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H51" s="93">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I51" s="48" t="s">
         <v>45</v>
@@ -4426,10 +4426,10 @@
         <v>121</v>
       </c>
       <c r="G52" s="91">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H52" s="94">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I52" s="49" t="s">
         <v>45</v>
@@ -5820,7 +5820,7 @@
         <v>73</v>
       </c>
       <c r="G150" s="95">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H150" s="21" t="s">
         <v>45</v>
@@ -5836,7 +5836,7 @@
         <v>71</v>
       </c>
       <c r="G151" s="96">
-        <v>154.75714285714287</v>
+        <v>374.75714285714287</v>
       </c>
       <c r="H151" s="32" t="s">
         <v>45</v>
@@ -5852,7 +5852,7 @@
         <v>72</v>
       </c>
       <c r="G152" s="96">
-        <v>2450.7528124969222</v>
+        <v>2470.7528124969222</v>
       </c>
       <c r="H152" s="32" t="s">
         <v>45</v>
@@ -5868,7 +5868,7 @@
         <v>74</v>
       </c>
       <c r="G153" s="96">
-        <v>6000</v>
+        <v>6220</v>
       </c>
       <c r="H153" s="32" t="s">
         <v>77</v>
@@ -5884,7 +5884,7 @@
         <v>75</v>
       </c>
       <c r="G154" s="96">
-        <v>-111264.30729151274</v>
+        <v>-112075.30729151274</v>
       </c>
       <c r="H154" s="32" t="s">
         <v>77</v>
@@ -5900,7 +5900,7 @@
         <v>76</v>
       </c>
       <c r="G155" s="97">
-        <v>8853.75</v>
+        <v>19994.75</v>
       </c>
       <c r="H155" s="22" t="s">
         <v>77</v>
@@ -7831,16 +7831,16 @@
         <v>78</v>
       </c>
       <c r="G298" s="98">
-        <v>-14.306847027370342</v>
+        <v>-14.41112892352953</v>
       </c>
       <c r="H298" s="99">
-        <v>1.1384535611829807</v>
+        <v>2.5710116439320516</v>
       </c>
       <c r="I298" s="100">
-        <v>14.306847027370342</v>
+        <v>14.41112892352953</v>
       </c>
       <c r="J298" s="100">
-        <v>-1.1384535611829807</v>
+        <v>-2.5710116439320516</v>
       </c>
       <c r="K298" s="66" t="s">
         <v>49</v>
@@ -7862,13 +7862,13 @@
         <v>79</v>
       </c>
       <c r="G299" s="106">
-        <v>-0.28723154969610915</v>
+        <v>-0.16131947668955751</v>
       </c>
       <c r="H299" s="107">
         <v>0</v>
       </c>
       <c r="I299" s="108">
-        <v>0.48427446381205219</v>
+        <v>0.63847509064723651</v>
       </c>
       <c r="J299" s="108">
         <v>0</v>
@@ -7896,13 +7896,13 @@
         <v>0</v>
       </c>
       <c r="H300" s="107">
-        <v>1.1744446908669197</v>
+        <v>1.1730328093999551</v>
       </c>
       <c r="I300" s="108">
         <v>0</v>
       </c>
       <c r="J300" s="108">
-        <v>1.945950704375081</v>
+        <v>1.9728273767367492</v>
       </c>
       <c r="K300" s="66" t="s">
         <v>49</v>
@@ -7924,16 +7924,16 @@
         <v>14</v>
       </c>
       <c r="G301" s="101">
-        <v>1.002492265856382</v>
+        <v>0.988829612745042</v>
       </c>
       <c r="H301" s="102">
-        <v>11.297473084438773</v>
+        <v>7.7480870216540332</v>
       </c>
       <c r="I301" s="103">
-        <v>1.0002678016416993</v>
+        <v>0.98337231460432473</v>
       </c>
       <c r="J301" s="103">
-        <v>7.0579523003177087</v>
+        <v>5.7037056374869408</v>
       </c>
       <c r="K301" s="43">
         <v>1</v>
@@ -8623,7 +8623,7 @@
         <v>183</v>
       </c>
       <c r="G352" s="109">
-        <v>0</v>
+        <v>3.2181129493181351E-5</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>22</v>
@@ -8639,7 +8639,7 @@
         <v>43</v>
       </c>
       <c r="G353" s="110">
-        <v>6.0410590049284098E-2</v>
+        <v>0.12875395066438466</v>
       </c>
       <c r="H353" s="32" t="s">
         <v>22</v>
@@ -8655,7 +8655,7 @@
         <v>41</v>
       </c>
       <c r="G354" s="111">
-        <v>0.67384530726401437</v>
+        <v>0.67827784300091742</v>
       </c>
       <c r="H354" s="22" t="s">
         <v>22</v>
@@ -8671,7 +8671,7 @@
         <v>185</v>
       </c>
       <c r="G355" s="124">
-        <v>6.1597119942547407E-2</v>
+        <v>6.3760345955856029E-2</v>
       </c>
       <c r="H355" s="125" t="s">
         <v>42</v>
@@ -8687,7 +8687,7 @@
         <v>186</v>
       </c>
       <c r="G356" s="110">
-        <v>8.2511818423049231E-4</v>
+        <v>1.7184464613506617E-3</v>
       </c>
       <c r="H356" s="32" t="s">
         <v>187</v>
@@ -8703,7 +8703,7 @@
         <v>189</v>
       </c>
       <c r="G357" s="111">
-        <v>8.8489401794835318E-3</v>
+        <v>8.9041754905022884E-3</v>
       </c>
       <c r="H357" s="22" t="s">
         <v>187</v>

--- a/WI 24/SE 160A/MATLAB PROJECT 1/SE160A_1_Spar_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1/SE160A_1_Spar_Analysis_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3AE55C-E3D2-4F9D-834C-4FD86F33DAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300BA2D1-0C35-4A40-8834-EDAA97D11FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2560,7 +2560,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A563C1D0-B447-4C64-B254-53D4D16317E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD2AE8B-FA53-BD83-9B0C-CF75218FA8EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5196D055-356F-2B34-8808-748E6FD3E7C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE623B4-757B-27F1-35EC-837602E36748}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2660,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2160C66-7DF5-7CD7-C459-6BD90A1C0251}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D2480B6-ACF1-3BB6-620A-33EFEACED025}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2710,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB8B463-8D5B-8981-1157-DEF001B6C720}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{844417B1-E0BE-3171-A2D3-50F74FEE6697}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2760,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC8D43C-2C48-8B84-ABB6-392B3A4E08CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5EF1E5-6419-59AE-9F41-490083078601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2810,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13A5047-2B41-4F45-32BD-0E5002F8D7E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29928E2-8FBC-E66F-E71F-357DDCD9FB75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2860,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E22D64CC-6D96-E2AB-2656-F63CCBC56B1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A52CC0D-6ED2-C4A8-4597-8FE8F87063F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2910,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B0E86F-6581-E89B-4417-6EB50209F0F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7F65D1-58B4-6C7B-6B76-8A6344E3C41B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +2960,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{309895CB-1044-2189-F030-89AFEA9D2768}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB0D40E8-64A7-1D6F-9F55-6A33A9141640}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3010,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C52E0C0-E2ED-169B-17B7-6715040A0BDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CD4874-0757-F129-1329-BE59D9CB9878}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3060,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4323163D-4BDA-3289-E754-171DECC7B6EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B7AC3F-C8B9-F6B2-0573-EB505993CE4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3110,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A24D98D-436E-457D-F87C-6C45C8E6C6FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A3027F1-68BF-5E96-AED2-4E13C65E3851}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3160,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCACCBD9-F8A9-656B-D13D-38D7FB7A2735}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A5FE5D-80E5-D651-5F6E-51B213DDE018}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3210,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5FBD82-9521-DEAA-C2BF-98BFD95D95FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A90275-804A-2A20-CE54-AC0D3F66330A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3260,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A33BD2-3F56-AA37-4BB4-1541D2319335}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1B28E5B-560D-1CDB-BC80-A28AE6CD8B5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3310,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF17DBF-1331-CBB0-0317-F5AD72501BB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{542014CA-CAF5-4960-6205-149EA40FB1FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3360,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54224EA1-81B0-87BF-F191-30FCA7FF8C0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4B8667-CF0C-DEFB-0F19-0E7BFDC794B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4294,10 +4294,10 @@
         <v>112</v>
       </c>
       <c r="G46" s="89">
-        <v>0.2555</v>
+        <v>0</v>
       </c>
       <c r="H46" s="86">
-        <v>0.75549999999999995</v>
+        <v>0</v>
       </c>
       <c r="I46" s="9">
         <v>1</v>
@@ -4316,10 +4316,10 @@
         <v>106</v>
       </c>
       <c r="G47" s="90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H47" s="93">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I47" s="48" t="s">
         <v>45</v>
@@ -4338,10 +4338,10 @@
         <v>107</v>
       </c>
       <c r="G48" s="90">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H48" s="93">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I48" s="48" t="s">
         <v>45</v>
@@ -4360,10 +4360,10 @@
         <v>108</v>
       </c>
       <c r="G49" s="90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H49" s="93">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I49" s="48" t="s">
         <v>45</v>
@@ -4382,10 +4382,10 @@
         <v>117</v>
       </c>
       <c r="G50" s="90">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H50" s="93">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I50" s="48" t="s">
         <v>45</v>
@@ -4404,10 +4404,10 @@
         <v>119</v>
       </c>
       <c r="G51" s="90">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H51" s="93">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I51" s="48" t="s">
         <v>45</v>
@@ -4426,10 +4426,10 @@
         <v>121</v>
       </c>
       <c r="G52" s="91">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H52" s="94">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I52" s="49" t="s">
         <v>45</v>
@@ -5820,7 +5820,7 @@
         <v>73</v>
       </c>
       <c r="G150" s="95">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H150" s="21" t="s">
         <v>45</v>
@@ -5836,7 +5836,7 @@
         <v>71</v>
       </c>
       <c r="G151" s="96">
-        <v>374.75714285714287</v>
+        <v>154.75714285714287</v>
       </c>
       <c r="H151" s="32" t="s">
         <v>45</v>
@@ -5852,7 +5852,7 @@
         <v>72</v>
       </c>
       <c r="G152" s="96">
-        <v>2470.7528124969222</v>
+        <v>2450.7528124969222</v>
       </c>
       <c r="H152" s="32" t="s">
         <v>45</v>
@@ -5868,7 +5868,7 @@
         <v>74</v>
       </c>
       <c r="G153" s="96">
-        <v>6220</v>
+        <v>6000</v>
       </c>
       <c r="H153" s="32" t="s">
         <v>77</v>
@@ -5884,7 +5884,7 @@
         <v>75</v>
       </c>
       <c r="G154" s="96">
-        <v>-112075.30729151274</v>
+        <v>-111264.30729151274</v>
       </c>
       <c r="H154" s="32" t="s">
         <v>77</v>
@@ -5900,7 +5900,7 @@
         <v>76</v>
       </c>
       <c r="G155" s="97">
-        <v>19994.75</v>
+        <v>8853.75</v>
       </c>
       <c r="H155" s="22" t="s">
         <v>77</v>
@@ -7831,16 +7831,16 @@
         <v>78</v>
       </c>
       <c r="G298" s="98">
-        <v>-14.41112892352953</v>
+        <v>-14.306847027370342</v>
       </c>
       <c r="H298" s="99">
-        <v>2.5710116439320516</v>
+        <v>1.1384535611829807</v>
       </c>
       <c r="I298" s="100">
-        <v>14.41112892352953</v>
+        <v>14.306847027370342</v>
       </c>
       <c r="J298" s="100">
-        <v>-2.5710116439320516</v>
+        <v>-1.1384535611829807</v>
       </c>
       <c r="K298" s="66" t="s">
         <v>49</v>
@@ -7862,13 +7862,13 @@
         <v>79</v>
       </c>
       <c r="G299" s="106">
-        <v>-0.16131947668955751</v>
+        <v>-0.28723154969610915</v>
       </c>
       <c r="H299" s="107">
         <v>0</v>
       </c>
       <c r="I299" s="108">
-        <v>0.63847509064723651</v>
+        <v>0.48427446381205219</v>
       </c>
       <c r="J299" s="108">
         <v>0</v>
@@ -7896,13 +7896,13 @@
         <v>0</v>
       </c>
       <c r="H300" s="107">
-        <v>1.1730328093999551</v>
+        <v>1.1744446908669197</v>
       </c>
       <c r="I300" s="108">
         <v>0</v>
       </c>
       <c r="J300" s="108">
-        <v>1.9728273767367492</v>
+        <v>1.945950704375081</v>
       </c>
       <c r="K300" s="66" t="s">
         <v>49</v>
@@ -7924,16 +7924,16 @@
         <v>14</v>
       </c>
       <c r="G301" s="101">
-        <v>0.988829612745042</v>
+        <v>1.002492265856382</v>
       </c>
       <c r="H301" s="102">
-        <v>7.7480870216540332</v>
+        <v>11.297473084438773</v>
       </c>
       <c r="I301" s="103">
-        <v>0.98337231460432473</v>
+        <v>1.0002678016416993</v>
       </c>
       <c r="J301" s="103">
-        <v>5.7037056374869408</v>
+        <v>7.0579523003177087</v>
       </c>
       <c r="K301" s="43">
         <v>1</v>
@@ -8623,7 +8623,7 @@
         <v>183</v>
       </c>
       <c r="G352" s="109">
-        <v>3.2181129493181351E-5</v>
+        <v>0</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>22</v>
@@ -8639,7 +8639,7 @@
         <v>43</v>
       </c>
       <c r="G353" s="110">
-        <v>0.12875395066438466</v>
+        <v>6.0410590049284098E-2</v>
       </c>
       <c r="H353" s="32" t="s">
         <v>22</v>
@@ -8655,7 +8655,7 @@
         <v>41</v>
       </c>
       <c r="G354" s="111">
-        <v>0.67827784300091742</v>
+        <v>0.67384530726401437</v>
       </c>
       <c r="H354" s="22" t="s">
         <v>22</v>
@@ -8671,7 +8671,7 @@
         <v>185</v>
       </c>
       <c r="G355" s="124">
-        <v>6.3760345955856029E-2</v>
+        <v>6.1597119942547407E-2</v>
       </c>
       <c r="H355" s="125" t="s">
         <v>42</v>
@@ -8687,7 +8687,7 @@
         <v>186</v>
       </c>
       <c r="G356" s="110">
-        <v>1.7184464613506617E-3</v>
+        <v>8.2511818423049231E-4</v>
       </c>
       <c r="H356" s="32" t="s">
         <v>187</v>
@@ -8703,7 +8703,7 @@
         <v>189</v>
       </c>
       <c r="G357" s="111">
-        <v>8.9041754905022884E-3</v>
+        <v>8.8489401794835318E-3</v>
       </c>
       <c r="H357" s="22" t="s">
         <v>187</v>
